--- a/docs/tables.xlsx
+++ b/docs/tables.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bilal\Documents\AIhomowork2\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bilal\AIhomowork2\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -158,16 +158,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -176,14 +178,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -467,7 +467,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,28 +477,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="16">
         <v>0.6</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="15">
+      <c r="D2" s="16"/>
+      <c r="E2" s="17">
         <v>0.9</v>
       </c>
-      <c r="F2" s="15"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -521,7 +521,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+      <c r="A4" s="12">
         <v>50</v>
       </c>
       <c r="B4" s="6">
@@ -541,7 +541,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="5">
         <v>200</v>
       </c>
@@ -559,7 +559,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
+      <c r="A6" s="12">
         <v>200</v>
       </c>
       <c r="B6" s="6">
@@ -571,7 +571,7 @@
       <c r="D6" s="7">
         <v>74.209999999999994</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="10">
         <v>78.1099999999999</v>
       </c>
       <c r="F6" s="7">
@@ -579,7 +579,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="5">
         <v>200</v>
       </c>
@@ -597,7 +597,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
+      <c r="A8" s="12">
         <v>400</v>
       </c>
       <c r="B8" s="6">
@@ -617,7 +617,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
+      <c r="A9" s="13"/>
       <c r="B9" s="5">
         <v>200</v>
       </c>
@@ -643,14 +643,14 @@
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
     </row>
@@ -659,14 +659,14 @@
       <c r="B14" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="16">
         <v>0.6</v>
       </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="15">
+      <c r="D14" s="16"/>
+      <c r="E14" s="17">
         <v>0.9</v>
       </c>
-      <c r="F14" s="15"/>
+      <c r="F14" s="17"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
     </row>
@@ -693,7 +693,7 @@
       <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="10">
+      <c r="A16" s="12">
         <v>50</v>
       </c>
       <c r="B16" s="6">
@@ -715,7 +715,7 @@
       <c r="H16" s="9"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
+      <c r="A17" s="13"/>
       <c r="B17" s="5">
         <v>200</v>
       </c>
@@ -735,7 +735,7 @@
       <c r="H17" s="9"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="10">
+      <c r="A18" s="12">
         <v>200</v>
       </c>
       <c r="B18" s="6">
@@ -757,7 +757,7 @@
       <c r="H18" s="9"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
+      <c r="A19" s="13"/>
       <c r="B19" s="5">
         <v>200</v>
       </c>
@@ -777,7 +777,7 @@
       <c r="H19" s="9"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="10">
+      <c r="A20" s="12">
         <v>400</v>
       </c>
       <c r="B20" s="6">
@@ -799,14 +799,14 @@
       <c r="H20" s="9"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
+      <c r="A21" s="13"/>
       <c r="B21" s="5">
         <v>200</v>
       </c>
       <c r="C21" s="8">
         <v>25.89</v>
       </c>
-      <c r="D21" s="19">
+      <c r="D21" s="11">
         <v>27.34</v>
       </c>
       <c r="E21" s="8">
@@ -847,14 +847,14 @@
       <c r="G24" s="9"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
       <c r="G25" s="9"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -862,14 +862,14 @@
       <c r="B26" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="14">
+      <c r="C26" s="16">
         <v>0.6</v>
       </c>
-      <c r="D26" s="14"/>
-      <c r="E26" s="15">
+      <c r="D26" s="16"/>
+      <c r="E26" s="17">
         <v>0.9</v>
       </c>
-      <c r="F26" s="15"/>
+      <c r="F26" s="17"/>
       <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -894,7 +894,7 @@
       <c r="G27" s="9"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="10">
+      <c r="A28" s="12">
         <v>50</v>
       </c>
       <c r="B28" s="6">
@@ -915,7 +915,7 @@
       <c r="G28" s="9"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
+      <c r="A29" s="13"/>
       <c r="B29" s="5">
         <v>200</v>
       </c>
@@ -934,7 +934,7 @@
       <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="10">
+      <c r="A30" s="12">
         <v>200</v>
       </c>
       <c r="B30" s="6">
@@ -955,7 +955,7 @@
       <c r="G30" s="9"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="11"/>
+      <c r="A31" s="13"/>
       <c r="B31" s="5">
         <v>200</v>
       </c>
@@ -974,7 +974,7 @@
       <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="10">
+      <c r="A32" s="12">
         <v>400</v>
       </c>
       <c r="B32" s="6">
@@ -995,14 +995,14 @@
       <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="11"/>
+      <c r="A33" s="13"/>
       <c r="B33" s="5">
         <v>200</v>
       </c>
       <c r="C33" s="8">
         <v>14.719999999999899</v>
       </c>
-      <c r="D33" s="19">
+      <c r="D33" s="11">
         <v>16.079999999999998</v>
       </c>
       <c r="E33" s="8">
@@ -1033,6 +1033,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="A13:F13"/>
     <mergeCell ref="C14:D14"/>
@@ -1045,13 +1051,37 @@
     <mergeCell ref="E26:F26"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
   </mergeCells>
+  <conditionalFormatting sqref="C4:F9">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16:F21">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28:F33">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1062,7 +1092,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1072,28 +1102,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="16">
         <v>0.6</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="15">
+      <c r="D2" s="16"/>
+      <c r="E2" s="17">
         <v>0.9</v>
       </c>
-      <c r="F2" s="15"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1116,7 +1146,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+      <c r="A4" s="12">
         <v>50</v>
       </c>
       <c r="B4" s="6">
@@ -1136,7 +1166,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="5">
         <v>200</v>
       </c>
@@ -1154,7 +1184,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
+      <c r="A6" s="12">
         <v>200</v>
       </c>
       <c r="B6" s="6">
@@ -1174,7 +1204,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="5">
         <v>200</v>
       </c>
@@ -1187,12 +1217,12 @@
       <c r="E7" s="8">
         <v>39.0399999999999</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="11">
         <v>39.269999999999897</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
+      <c r="A8" s="12">
         <v>400</v>
       </c>
       <c r="B8" s="6">
@@ -1212,7 +1242,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
+      <c r="A9" s="13"/>
       <c r="B9" s="5">
         <v>200</v>
       </c>
@@ -1238,28 +1268,28 @@
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="16">
         <v>0.6</v>
       </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="15">
+      <c r="D14" s="16"/>
+      <c r="E14" s="17">
         <v>0.9</v>
       </c>
-      <c r="F14" s="15"/>
+      <c r="F14" s="17"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -1282,7 +1312,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="10">
+      <c r="A16" s="12">
         <v>50</v>
       </c>
       <c r="B16" s="6">
@@ -1302,7 +1332,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
+      <c r="A17" s="13"/>
       <c r="B17" s="5">
         <v>200</v>
       </c>
@@ -1320,7 +1350,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="10">
+      <c r="A18" s="12">
         <v>200</v>
       </c>
       <c r="B18" s="6">
@@ -1340,7 +1370,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
+      <c r="A19" s="13"/>
       <c r="B19" s="5">
         <v>200</v>
       </c>
@@ -1358,7 +1388,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="10">
+      <c r="A20" s="12">
         <v>400</v>
       </c>
       <c r="B20" s="6">
@@ -1378,7 +1408,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
+      <c r="A21" s="13"/>
       <c r="B21" s="5">
         <v>200</v>
       </c>
@@ -1391,7 +1421,7 @@
       <c r="E21" s="8">
         <v>15.069999999999901</v>
       </c>
-      <c r="F21" s="19">
+      <c r="F21" s="11">
         <v>15.64</v>
       </c>
     </row>
@@ -1420,28 +1450,28 @@
       <c r="F24" s="4"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="14">
+      <c r="C26" s="16">
         <v>0.6</v>
       </c>
-      <c r="D26" s="14"/>
-      <c r="E26" s="15">
+      <c r="D26" s="16"/>
+      <c r="E26" s="17">
         <v>0.9</v>
       </c>
-      <c r="F26" s="15"/>
+      <c r="F26" s="17"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
@@ -1464,7 +1494,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="10">
+      <c r="A28" s="12">
         <v>50</v>
       </c>
       <c r="B28" s="6">
@@ -1484,7 +1514,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
+      <c r="A29" s="13"/>
       <c r="B29" s="5">
         <v>200</v>
       </c>
@@ -1502,7 +1532,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="10">
+      <c r="A30" s="12">
         <v>200</v>
       </c>
       <c r="B30" s="6">
@@ -1522,7 +1552,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="11"/>
+      <c r="A31" s="13"/>
       <c r="B31" s="5">
         <v>200</v>
       </c>
@@ -1540,7 +1570,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="10">
+      <c r="A32" s="12">
         <v>400</v>
       </c>
       <c r="B32" s="6">
@@ -1560,7 +1590,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="11"/>
+      <c r="A33" s="13"/>
       <c r="B33" s="5">
         <v>200</v>
       </c>
@@ -1570,7 +1600,7 @@
       <c r="D33" s="8">
         <v>9.9199999999999893</v>
       </c>
-      <c r="E33" s="19">
+      <c r="E33" s="11">
         <v>10.11</v>
       </c>
       <c r="F33" s="8">
@@ -1579,6 +1609,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="A13:F13"/>
     <mergeCell ref="C14:D14"/>
@@ -1591,13 +1627,37 @@
     <mergeCell ref="E26:F26"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
   </mergeCells>
+  <conditionalFormatting sqref="C4:F9">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16:F21">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28:F33">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/docs/tables.xlsx
+++ b/docs/tables.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12075"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12075" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="rp_2" sheetId="1" r:id="rId1"/>
@@ -33,9 +33,6 @@
     <t>Crossover Pr.</t>
   </si>
   <si>
-    <t># Generatons</t>
-  </si>
-  <si>
     <t>Pop.Size \ Mut Pr.</t>
   </si>
   <si>
@@ -43,6 +40,9 @@
   </si>
   <si>
     <t>030</t>
+  </si>
+  <si>
+    <t># Generations</t>
   </si>
 </sst>
 </file>
@@ -85,7 +85,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -113,32 +113,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -146,8 +120,6 @@
   <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -160,6 +132,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -466,8 +444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,7 +466,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="16">
@@ -501,11 +479,11 @@
       <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="C3" s="1">
         <v>0.02</v>
@@ -516,45 +494,46 @@
       <c r="E3" s="1">
         <v>0.02</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="1">
         <v>0.2</v>
       </c>
+      <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>50</v>
       </c>
-      <c r="B4" s="6">
-        <v>100</v>
-      </c>
-      <c r="C4" s="7">
+      <c r="B4" s="4">
+        <v>100</v>
+      </c>
+      <c r="C4" s="5">
         <v>73.919999999999902</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="5">
         <v>74.579999999999899</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="5">
         <v>75.759999999999906</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="5">
         <v>75.419999999999902</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
-      <c r="B5" s="5">
-        <v>200</v>
-      </c>
-      <c r="C5" s="8">
+      <c r="B5" s="3">
+        <v>200</v>
+      </c>
+      <c r="C5" s="6">
         <v>75.72</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="6">
         <v>75.959999999999894</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="6">
         <v>77.539999999999907</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="6">
         <v>76.6099999999999</v>
       </c>
     </row>
@@ -562,37 +541,37 @@
       <c r="A6" s="12">
         <v>200</v>
       </c>
-      <c r="B6" s="6">
-        <v>100</v>
-      </c>
-      <c r="C6" s="7">
+      <c r="B6" s="4">
+        <v>100</v>
+      </c>
+      <c r="C6" s="5">
         <v>74.22</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="5">
         <v>74.209999999999994</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="8">
         <v>78.1099999999999</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="5">
         <v>76.529999999999902</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
-      <c r="B7" s="5">
-        <v>200</v>
-      </c>
-      <c r="C7" s="8">
+      <c r="B7" s="3">
+        <v>200</v>
+      </c>
+      <c r="C7" s="6">
         <v>75.199999999999903</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="6">
         <v>76.819999999999993</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="6">
         <v>76.289999999999907</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="6">
         <v>76.02</v>
       </c>
     </row>
@@ -600,63 +579,63 @@
       <c r="A8" s="12">
         <v>400</v>
       </c>
-      <c r="B8" s="6">
-        <v>100</v>
-      </c>
-      <c r="C8" s="7">
+      <c r="B8" s="4">
+        <v>100</v>
+      </c>
+      <c r="C8" s="5">
         <v>76.289999999999907</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="5">
         <v>76.019999999999897</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="5">
         <v>76.159999999999897</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="5">
         <v>75.769999999999897</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
-      <c r="B9" s="5">
-        <v>200</v>
-      </c>
-      <c r="C9" s="8">
+      <c r="B9" s="3">
+        <v>200</v>
+      </c>
+      <c r="C9" s="6">
         <v>77.3599999999999</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="6">
         <v>75.869999999999905</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="6">
         <v>75.069999999999993</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="6">
         <v>75.919999999999902</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="11" t="s">
         <v>1</v>
       </c>
       <c r="C14" s="16">
@@ -667,15 +646,15 @@
         <v>0.9</v>
       </c>
       <c r="F14" s="17"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="C15" s="1">
         <v>0.02</v>
@@ -686,180 +665,180 @@
       <c r="E15" s="1">
         <v>0.02</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="1">
         <v>0.2</v>
       </c>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>50</v>
       </c>
-      <c r="B16" s="6">
-        <v>100</v>
-      </c>
-      <c r="C16" s="7">
+      <c r="B16" s="4">
+        <v>100</v>
+      </c>
+      <c r="C16" s="5">
         <v>24.42</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="5">
         <v>26.02</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="5">
         <v>24.6</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="5">
         <v>25.71</v>
       </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
-      <c r="B17" s="5">
-        <v>200</v>
-      </c>
-      <c r="C17" s="8">
+      <c r="B17" s="3">
+        <v>200</v>
+      </c>
+      <c r="C17" s="6">
         <v>25.74</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="6">
         <v>25.8</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="6">
         <v>25.93</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="6">
         <v>24.6</v>
       </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>200</v>
       </c>
-      <c r="B18" s="6">
-        <v>100</v>
-      </c>
-      <c r="C18" s="7">
+      <c r="B18" s="4">
+        <v>100</v>
+      </c>
+      <c r="C18" s="5">
         <v>23.83</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="5">
         <v>24.51</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="5">
         <v>24.82</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="5">
         <v>25.03</v>
       </c>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
-      <c r="B19" s="5">
-        <v>200</v>
-      </c>
-      <c r="C19" s="8">
+      <c r="B19" s="3">
+        <v>200</v>
+      </c>
+      <c r="C19" s="6">
         <v>25.73</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="6">
         <v>25.3</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="6">
         <v>25.7899999999999</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="6">
         <v>25.189999999999898</v>
       </c>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>400</v>
       </c>
-      <c r="B20" s="6">
-        <v>100</v>
-      </c>
-      <c r="C20" s="7">
+      <c r="B20" s="4">
+        <v>100</v>
+      </c>
+      <c r="C20" s="5">
         <v>25.85</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="5">
         <v>25.95</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="5">
         <v>26.11</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="5">
         <v>24.74</v>
       </c>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
-      <c r="B21" s="5">
-        <v>200</v>
-      </c>
-      <c r="C21" s="8">
+      <c r="B21" s="3">
+        <v>200</v>
+      </c>
+      <c r="C21" s="6">
         <v>25.89</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="9">
         <v>27.34</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="6">
         <v>26.14</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="6">
         <v>24.86</v>
       </c>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="9"/>
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="7"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
       <c r="E25" s="15"/>
       <c r="F25" s="15"/>
-      <c r="G25" s="9"/>
+      <c r="G25" s="7"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C26" s="16">
@@ -870,14 +849,14 @@
         <v>0.9</v>
       </c>
       <c r="F26" s="17"/>
-      <c r="G26" s="9"/>
+      <c r="G26" s="7"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="C27" s="1">
         <v>0.02</v>
@@ -888,148 +867,148 @@
       <c r="E27" s="1">
         <v>0.02</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="1">
         <v>0.2</v>
       </c>
-      <c r="G27" s="9"/>
+      <c r="G27" s="7"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
         <v>50</v>
       </c>
-      <c r="B28" s="6">
-        <v>100</v>
-      </c>
-      <c r="C28" s="7">
+      <c r="B28" s="4">
+        <v>100</v>
+      </c>
+      <c r="C28" s="5">
         <v>14.02</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="5">
         <v>14.92</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="5">
         <v>14.299999999999899</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F28" s="5">
         <v>15.08</v>
       </c>
-      <c r="G28" s="9"/>
+      <c r="G28" s="7"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="13"/>
-      <c r="B29" s="5">
-        <v>200</v>
-      </c>
-      <c r="C29" s="8">
+      <c r="B29" s="3">
+        <v>200</v>
+      </c>
+      <c r="C29" s="6">
         <v>14.46</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="6">
         <v>14.74</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E29" s="6">
         <v>15.61</v>
       </c>
-      <c r="F29" s="8">
+      <c r="F29" s="6">
         <v>14.0199999999999</v>
       </c>
-      <c r="G29" s="9"/>
+      <c r="G29" s="7"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
         <v>200</v>
       </c>
-      <c r="B30" s="6">
-        <v>100</v>
-      </c>
-      <c r="C30" s="7">
+      <c r="B30" s="4">
+        <v>100</v>
+      </c>
+      <c r="C30" s="5">
         <v>15.24</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="5">
         <v>15.5</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30" s="5">
         <v>15.03</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F30" s="5">
         <v>14.48</v>
       </c>
-      <c r="G30" s="9"/>
+      <c r="G30" s="7"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
-      <c r="B31" s="5">
-        <v>200</v>
-      </c>
-      <c r="C31" s="8">
+      <c r="B31" s="3">
+        <v>200</v>
+      </c>
+      <c r="C31" s="6">
         <v>15.59</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D31" s="6">
         <v>15.17</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E31" s="6">
         <v>14.549999999999899</v>
       </c>
-      <c r="F31" s="8">
+      <c r="F31" s="6">
         <v>15.1</v>
       </c>
-      <c r="G31" s="9"/>
+      <c r="G31" s="7"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
         <v>400</v>
       </c>
-      <c r="B32" s="6">
-        <v>100</v>
-      </c>
-      <c r="C32" s="7">
+      <c r="B32" s="4">
+        <v>100</v>
+      </c>
+      <c r="C32" s="5">
         <v>14.89</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="5">
         <v>15.15</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32" s="5">
         <v>15.07</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F32" s="5">
         <v>15.18</v>
       </c>
-      <c r="G32" s="9"/>
+      <c r="G32" s="7"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
-      <c r="B33" s="5">
-        <v>200</v>
-      </c>
-      <c r="C33" s="8">
+      <c r="B33" s="3">
+        <v>200</v>
+      </c>
+      <c r="C33" s="6">
         <v>14.719999999999899</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D33" s="9">
         <v>16.079999999999998</v>
       </c>
-      <c r="E33" s="8">
+      <c r="E33" s="6">
         <v>15.11</v>
       </c>
-      <c r="F33" s="8">
+      <c r="F33" s="6">
         <v>15.55</v>
       </c>
-      <c r="G33" s="9"/>
+      <c r="G33" s="7"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="9"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -1089,10 +1068,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1101,7 +1080,7 @@
     <col min="2" max="2" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -1111,9 +1090,9 @@
       <c r="E1" s="19"/>
       <c r="F1" s="19"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="16">
@@ -1125,12 +1104,12 @@
       </c>
       <c r="F2" s="17"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="C3" s="1">
         <v>0.02</v>
@@ -1141,135 +1120,136 @@
       <c r="E3" s="1">
         <v>0.02</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="1">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>50</v>
       </c>
-      <c r="B4" s="6">
-        <v>100</v>
-      </c>
-      <c r="C4" s="7">
+      <c r="B4" s="4">
+        <v>100</v>
+      </c>
+      <c r="C4" s="5">
         <v>35.799999999999997</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="5">
         <v>33.339999999999897</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="5">
         <v>33.779999999999902</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="5">
         <v>33.969999999999899</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
-      <c r="B5" s="5">
-        <v>200</v>
-      </c>
-      <c r="C5" s="8">
+      <c r="B5" s="3">
+        <v>200</v>
+      </c>
+      <c r="C5" s="6">
         <v>34.169999999999902</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="6">
         <v>34.839999999999897</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="6">
         <v>35.129999999999903</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="6">
         <v>36.129999999999903</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>200</v>
       </c>
-      <c r="B6" s="6">
-        <v>100</v>
-      </c>
-      <c r="C6" s="7">
+      <c r="B6" s="4">
+        <v>100</v>
+      </c>
+      <c r="C6" s="5">
         <v>37.489999999999903</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="5">
         <v>36.65</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="5">
         <v>35.079999999999899</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="5">
         <v>38.709999999999901</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
-      <c r="B7" s="5">
-        <v>200</v>
-      </c>
-      <c r="C7" s="8">
+      <c r="B7" s="3">
+        <v>200</v>
+      </c>
+      <c r="C7" s="6">
         <v>38.559999999999903</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="6">
         <v>36.559999999999903</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="6">
         <v>39.0399999999999</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="9">
         <v>39.269999999999897</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>400</v>
       </c>
-      <c r="B8" s="6">
-        <v>100</v>
-      </c>
-      <c r="C8" s="7">
+      <c r="B8" s="4">
+        <v>100</v>
+      </c>
+      <c r="C8" s="5">
         <v>36.899999999999899</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="5">
         <v>36.6099999999999</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="5">
         <v>38.799999999999997</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="5">
         <v>38.169999999999902</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
-      <c r="B9" s="5">
-        <v>200</v>
-      </c>
-      <c r="C9" s="8">
+      <c r="B9" s="3">
+        <v>200</v>
+      </c>
+      <c r="C9" s="6">
         <v>38.0399999999999</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="6">
         <v>37.439999999999898</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="6">
         <v>37.249999999999901</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="6">
         <v>38.29</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
@@ -1277,9 +1257,9 @@
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C14" s="16">
@@ -1291,12 +1271,12 @@
       </c>
       <c r="F14" s="17"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>2</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="C15" s="1">
         <v>0.02</v>
@@ -1307,151 +1287,152 @@
       <c r="E15" s="1">
         <v>0.02</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="1">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>50</v>
       </c>
-      <c r="B16" s="6">
-        <v>100</v>
-      </c>
-      <c r="C16" s="7">
+      <c r="B16" s="4">
+        <v>100</v>
+      </c>
+      <c r="C16" s="5">
         <v>13.569999999999901</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="5">
         <v>12.8399999999999</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="5">
         <v>13.43</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="5">
         <v>11.9299999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
-      <c r="B17" s="5">
-        <v>200</v>
-      </c>
-      <c r="C17" s="8">
+      <c r="B17" s="3">
+        <v>200</v>
+      </c>
+      <c r="C17" s="6">
         <v>14.139999999999899</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="6">
         <v>12.6699999999999</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="6">
         <v>13.579999999999901</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="6">
         <v>13.02</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>200</v>
       </c>
-      <c r="B18" s="6">
-        <v>100</v>
-      </c>
-      <c r="C18" s="7">
+      <c r="B18" s="4">
+        <v>100</v>
+      </c>
+      <c r="C18" s="5">
         <v>13.9</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="5">
         <v>14.719999999999899</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="5">
         <v>14.52</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="5">
         <v>14.469999999999899</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
-      <c r="B19" s="5">
-        <v>200</v>
-      </c>
-      <c r="C19" s="8">
+      <c r="B19" s="3">
+        <v>200</v>
+      </c>
+      <c r="C19" s="6">
         <v>14.94</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="6">
         <v>15.059999999999899</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="6">
         <v>14.729999999999899</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="6">
         <v>14.969999999999899</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>400</v>
       </c>
-      <c r="B20" s="6">
-        <v>100</v>
-      </c>
-      <c r="C20" s="7">
+      <c r="B20" s="4">
+        <v>100</v>
+      </c>
+      <c r="C20" s="5">
         <v>14.08</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="5">
         <v>14.73</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="5">
         <v>14.04</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="5">
         <v>14.729999999999899</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
-      <c r="B21" s="5">
-        <v>200</v>
-      </c>
-      <c r="C21" s="8">
+      <c r="B21" s="3">
+        <v>200</v>
+      </c>
+      <c r="C21" s="6">
         <v>15.6</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="6">
         <v>15.02</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="6">
         <v>15.069999999999901</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="9">
         <v>15.64</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
@@ -1459,9 +1440,9 @@
       <c r="E25" s="15"/>
       <c r="F25" s="15"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C26" s="16">
@@ -1473,12 +1454,12 @@
       </c>
       <c r="F26" s="17"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="10" t="s">
         <v>2</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="C27" s="1">
         <v>0.02</v>
@@ -1489,121 +1470,122 @@
       <c r="E27" s="1">
         <v>0.02</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="1">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27" s="7"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
         <v>50</v>
       </c>
-      <c r="B28" s="6">
-        <v>100</v>
-      </c>
-      <c r="C28" s="7">
+      <c r="B28" s="4">
+        <v>100</v>
+      </c>
+      <c r="C28" s="5">
         <v>7.37</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="5">
         <v>7.6099999999999897</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="5">
         <v>8.14</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F28" s="5">
         <v>7.8899999999999899</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="13"/>
-      <c r="B29" s="5">
-        <v>200</v>
-      </c>
-      <c r="C29" s="8">
+      <c r="B29" s="3">
+        <v>200</v>
+      </c>
+      <c r="C29" s="6">
         <v>8.76</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="6">
         <v>8.3499999999999908</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E29" s="6">
         <v>7.8599999999999897</v>
       </c>
-      <c r="F29" s="8">
+      <c r="F29" s="6">
         <v>8.2799999999999994</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
         <v>200</v>
       </c>
-      <c r="B30" s="6">
-        <v>100</v>
-      </c>
-      <c r="C30" s="7">
+      <c r="B30" s="4">
+        <v>100</v>
+      </c>
+      <c r="C30" s="5">
         <v>9.4199999999999893</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="5">
         <v>8.4700000000000006</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30" s="5">
         <v>8.6999999999999993</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F30" s="5">
         <v>9.6599999999999895</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
-      <c r="B31" s="5">
-        <v>200</v>
-      </c>
-      <c r="C31" s="8">
+      <c r="B31" s="3">
+        <v>200</v>
+      </c>
+      <c r="C31" s="6">
         <v>9.8299999999999894</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D31" s="6">
         <v>9.3599999999999905</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E31" s="6">
         <v>9.4199999999999893</v>
       </c>
-      <c r="F31" s="8">
+      <c r="F31" s="6">
         <v>9.85</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
         <v>400</v>
       </c>
-      <c r="B32" s="6">
-        <v>100</v>
-      </c>
-      <c r="C32" s="7">
+      <c r="B32" s="4">
+        <v>100</v>
+      </c>
+      <c r="C32" s="5">
         <v>9.8799999999999901</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="5">
         <v>9.3199999999999896</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32" s="5">
         <v>9.2499999999999893</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F32" s="5">
         <v>9.3699999999999992</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
-      <c r="B33" s="5">
-        <v>200</v>
-      </c>
-      <c r="C33" s="8">
+      <c r="B33" s="3">
+        <v>200</v>
+      </c>
+      <c r="C33" s="6">
         <v>9.4099999999999895</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D33" s="6">
         <v>9.9199999999999893</v>
       </c>
-      <c r="E33" s="11">
+      <c r="E33" s="9">
         <v>10.11</v>
       </c>
-      <c r="F33" s="8">
+      <c r="F33" s="6">
         <v>9.71999999999999</v>
       </c>
     </row>
